--- a/Documents/Foodies_IssuesList.xlsx
+++ b/Documents/Foodies_IssuesList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Foodie_IssuesSheet_ُExternal" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>Issues List</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>Baseline strategy is missing from Configuration Management Plan</t>
+  </si>
+  <si>
+    <t>added baseline strategy and baseline naming convention</t>
+  </si>
+  <si>
+    <t>Document is being revised</t>
   </si>
 </sst>
 </file>
@@ -196,7 +202,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -321,29 +327,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,40 +759,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -952,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,40 +975,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1031,13 +1037,13 @@
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>43589</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1049,11 +1055,13 @@
       <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="13">
+      <c r="C6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="11">
         <v>43589</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1065,11 +1073,13 @@
       <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="13">
+      <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="11">
         <v>43589</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1084,10 +1094,10 @@
       <c r="C8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>43589</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <v>43589</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1104,10 +1114,10 @@
       <c r="C9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>43589</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <v>43595</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -1122,10 +1132,10 @@
         <v>44</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>43589</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1140,10 +1150,10 @@
       <c r="C11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>43589</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <v>43593</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -1158,10 +1168,10 @@
         <v>47</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <v>43589</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1176,10 +1186,10 @@
       <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>43589</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <v>43590</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -1193,13 +1203,17 @@
       <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="13">
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="11">
         <v>43589</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="11">
+        <v>43595</v>
+      </c>
       <c r="F14" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1218,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,24 +1242,24 @@
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1273,29 +1287,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="17" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+    <row r="3" spans="1:10" s="14" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="13">
         <v>1</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documents/Foodies_IssuesList.xlsx
+++ b/Documents/Foodies_IssuesList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Foodie_IssuesSheet_ُExternal" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>Issues List</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>Document is being revised</t>
+  </si>
+  <si>
+    <t>Foodie_IS_Ext_006</t>
+  </si>
+  <si>
+    <t>2 Interview Days ( Wedenesday / Thursday) was fully not workable days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team dedicate whoe Friday to PM project to finihs all the documents and designs </t>
   </si>
 </sst>
 </file>
@@ -742,23 +751,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="8" hidden="1" customWidth="1"/>
-    <col min="8" max="15" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="15" width="9.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -777,7 +786,7 @@
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -794,7 +803,7 @@
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -814,7 +823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -832,7 +841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -852,7 +861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -872,7 +881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -892,7 +901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -910,15 +919,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43682</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43743</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -926,7 +947,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -934,7 +955,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -962,19 +983,19 @@
       <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="6" customWidth="1"/>
     <col min="7" max="7" width="8" hidden="1" customWidth="1"/>
-    <col min="8" max="15" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="15" width="9.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -993,7 +1014,7 @@
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1010,7 +1031,7 @@
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1030,7 +1051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1048,7 +1069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1066,7 +1087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1084,7 +1105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1104,7 +1125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1124,7 +1145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1140,7 +1161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1160,7 +1181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -1176,7 +1197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>54</v>
       </c>
@@ -1196,7 +1217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
@@ -1232,22 +1253,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>48</v>
       </c>
@@ -1261,7 +1282,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -1287,7 +1308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="14" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="14" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -1326,7 +1347,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Foodies_IssuesList.xlsx
+++ b/Documents/Foodies_IssuesList.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
   <si>
     <t>Issues List</t>
   </si>
@@ -203,6 +203,30 @@
   </si>
   <si>
     <t xml:space="preserve">Team dedicate whoe Friday to PM project to finihs all the documents and designs </t>
+  </si>
+  <si>
+    <t>Foodie_IS_Ext_007</t>
+  </si>
+  <si>
+    <t>one day off during the design phase</t>
+  </si>
+  <si>
+    <t>Foodie_IS_Ext_008</t>
+  </si>
+  <si>
+    <t>one of team members didn't have an internet connection at home</t>
+  </si>
+  <si>
+    <t>tring to work offline but this leads to misunderstanding and mis-connecting with the whole team</t>
+  </si>
+  <si>
+    <t>Foodie_IS_Ext_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delay of customer approval on design diagrams that affect the whole flow of work </t>
+  </si>
+  <si>
+    <t>Adding SLA -Service Limit Agreement as 1 day that if customer delay to reply after one day from sending date, team will work with assumptions in order to keep a sustainable pace of work.</t>
   </si>
 </sst>
 </file>
@@ -751,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,18 +943,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2">
-        <v>43682</v>
+        <v>43621</v>
       </c>
       <c r="E10" s="2">
         <v>43743</v>
@@ -939,29 +963,61 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+    <row r="11" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43682</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43743</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43743</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43743</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documents/Foodies_IssuesList.xlsx
+++ b/Documents/Foodies_IssuesList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Foodie_IssuesSheet_ُExternal" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>Issues List</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>Adding SLA -Service Limit Agreement as 1 day that if customer delay to reply after one day from sending date, team will work with assumptions in order to keep a sustainable pace of work.</t>
+  </si>
+  <si>
+    <t>added client objectives section in project plan</t>
   </si>
 </sst>
 </file>
@@ -775,23 +778,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="6" customWidth="1"/>
     <col min="7" max="7" width="8" hidden="1" customWidth="1"/>
-    <col min="8" max="15" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="15" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -810,7 +813,7 @@
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -827,7 +830,7 @@
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -847,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -865,7 +868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -885,7 +888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -905,7 +908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -925,7 +928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -943,7 +946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
@@ -963,7 +966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>62</v>
       </c>
@@ -983,7 +986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>64</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>67</v>
       </c>
@@ -1035,23 +1038,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="38.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="6" customWidth="1"/>
     <col min="7" max="7" width="8" hidden="1" customWidth="1"/>
-    <col min="8" max="15" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="15" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1073,7 @@
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1087,7 +1090,7 @@
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1120,12 +1123,14 @@
       <c r="D5" s="11">
         <v>43589</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11">
+        <v>43595</v>
+      </c>
       <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1143,7 +1148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1161,7 +1166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1181,7 +1186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1201,23 +1206,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D10" s="11">
         <v>43589</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="11">
+        <v>43596</v>
+      </c>
       <c r="F10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1237,7 +1246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -1253,7 +1262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>54</v>
       </c>
@@ -1273,7 +1282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
@@ -1313,18 +1322,18 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>48</v>
       </c>
@@ -1338,7 +1347,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -1364,7 +1373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="14" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="14" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -1403,7 +1412,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Foodies_IssuesList.xlsx
+++ b/Documents/Foodies_IssuesList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Foodie_IssuesSheet_ُExternal" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>Issues List</t>
   </si>
@@ -230,12 +230,36 @@
   </si>
   <si>
     <t>added client objectives section in project plan</t>
+  </si>
+  <si>
+    <t>Foodie_IS_Ext_010</t>
+  </si>
+  <si>
+    <t>16/5/2019</t>
+  </si>
+  <si>
+    <t>17/5/2019</t>
+  </si>
+  <si>
+    <t>Foodie_IS_Ext_011</t>
+  </si>
+  <si>
+    <t>Two Team members waste time at the same task by mistake</t>
+  </si>
+  <si>
+    <t>one member complete it.</t>
+  </si>
+  <si>
+    <t>15/5/2019</t>
+  </si>
+  <si>
+    <t>add new issues</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
@@ -271,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,8 +314,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -330,11 +360,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -387,6 +458,33 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +892,7 @@
     <col min="8" max="15" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -813,7 +911,7 @@
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -830,7 +928,7 @@
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -850,7 +948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -868,7 +966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -888,7 +986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -908,7 +1006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -928,7 +1026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -946,7 +1044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
@@ -966,7 +1064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>62</v>
       </c>
@@ -986,7 +1084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>64</v>
       </c>
@@ -1006,7 +1104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>67</v>
       </c>
@@ -1019,6 +1117,69 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="27"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+    </row>
+    <row r="15" spans="1:37" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1038,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,6 +1557,17 @@
         <v>23</v>
       </c>
       <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documents/Foodies_IssuesList.xlsx
+++ b/Documents/Foodies_IssuesList.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="85">
   <si>
     <t>Issues List</t>
   </si>
@@ -254,6 +254,24 @@
   </si>
   <si>
     <t>add new issues</t>
+  </si>
+  <si>
+    <t>Foodie_IS_Int_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERD didn't met the auditing criteria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">draw a new one </t>
+  </si>
+  <si>
+    <t>Foodie_IS_Ext_012</t>
+  </si>
+  <si>
+    <t>many rework like documents modification from the previous phase this affect the current phase stability</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> working daily and over nights </t>
   </si>
 </sst>
 </file>
@@ -321,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -401,11 +419,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -449,15 +482,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -485,6 +509,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AK16"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,40 +939,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1120,68 +1166,111 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:37" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="27"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="28"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
     </row>
     <row r="15" spans="1:37" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="18" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="16" spans="1:37" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="21">
+        <v>43774</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="24"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1197,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,43 +1304,43 @@
     <col min="8" max="15" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1271,7 +1360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1291,7 +1380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1309,7 +1398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1327,7 +1416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1347,7 +1436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1367,7 +1456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1387,7 +1476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1407,7 +1496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -1423,7 +1512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>54</v>
       </c>
@@ -1443,7 +1532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
@@ -1462,6 +1551,30 @@
       <c r="F14" s="5" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="15" spans="1:19" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="31">
+        <v>43596</v>
+      </c>
+      <c r="E15" s="31">
+        <v>43596</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1477,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,18 +1608,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1566,6 +1679,26 @@
         <v>78</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
     </row>
